--- a/results/recognition/csv/full_rotated_fourier_high_noise.xlsx
+++ b/results/recognition/csv/full_rotated_fourier_high_noise.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">NORMAL</t>
   </si>
@@ -61,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,16 +146,16 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,9 +202,6 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="0" t="n">
         <v>160</v>
       </c>
@@ -224,9 +222,6 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="0" t="n">
         <v>180</v>
       </c>
@@ -247,9 +242,6 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="0" t="n">
         <v>200</v>
       </c>
